--- a/data/output/FV2410_FV2404/UTILMD/55223.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55223.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="341">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="341">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1137,6 +1137,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U235" totalsRowShown="0">
+  <autoFilter ref="A1:U235"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,7 +1456,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12814,5 +12847,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55223.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55223.xlsx
@@ -2249,7 +2249,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5467,7 +5467,7 @@
         <v>327</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5883,7 +5883,7 @@
         <v>328</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6087,7 +6087,7 @@
         <v>330</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6291,7 +6291,7 @@
         <v>331</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6437,7 +6437,7 @@
         <v>332</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8071,7 +8071,7 @@
         <v>334</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8271,7 +8271,7 @@
         <v>335</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8471,7 +8471,7 @@
         <v>335</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8775,7 +8775,7 @@
         <v>332</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9487,7 +9487,7 @@
         <v>336</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9637,7 +9637,7 @@
         <v>337</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9957,7 +9957,7 @@
         <v>338</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11605,7 +11605,7 @@
         <v>338</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11905,7 +11905,7 @@
         <v>341</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12371,7 +12371,7 @@
         <v>338</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -13823,7 +13823,7 @@
         <v>338</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N233" s="2"/>
